--- a/migforecasting/underground/tests on superdataset/test-19.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-19.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mae" sheetId="1" r:id="rId1"/>
+    <sheet name="mse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t>(superdataset-24 normbysoul.csv)</t>
+  </si>
+  <si>
+    <t>train (MSE)</t>
+  </si>
+  <si>
+    <t>test (MSE)</t>
   </si>
 </sst>
 </file>
@@ -384,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,4 +1071,227 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4929.1239673473729</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25902.286775504199</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f>C7+1</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5819.62820979557</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24160.417153259292</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:C26" si="0">C8+1</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6402.39417900014</v>
+      </c>
+      <c r="E9" s="3">
+        <v>24782.733602625151</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5710.3918935899701</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24929.476646445699</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6647.9387955937591</v>
+      </c>
+      <c r="E11" s="3">
+        <v>25367.63603707826</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6421.4404962514609</v>
+      </c>
+      <c r="E12" s="3">
+        <v>24531.916883496469</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5583.1903830424599</v>
+      </c>
+      <c r="E13" s="3">
+        <v>26209.33885587961</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6689.887725834159</v>
+      </c>
+      <c r="E14" s="3">
+        <v>25215.976452983679</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5199.7169804901632</v>
+      </c>
+      <c r="E15" s="3">
+        <v>26314.864277285858</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5874.1128086045792</v>
+      </c>
+      <c r="E16" s="3">
+        <v>23364.128751125048</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <f>AVERAGE(D7:D16)</f>
+        <v>5927.7825439549642</v>
+      </c>
+      <c r="E19" s="3">
+        <f>AVERAGE(E7:E16)</f>
+        <v>25077.877543568327</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <f>_xlfn.STDEV.S(D7:D16)</f>
+        <v>603.35749335246328</v>
+      </c>
+      <c r="E20" s="3">
+        <f>_xlfn.STDEV.S(E7:E16)</f>
+        <v>929.68913929869052</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/migforecasting/underground/tests on superdataset/test-19.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="mae" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>test (MSE)</t>
+  </si>
+  <si>
+    <t>(superdataset-24 balanced.csv)</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I58"/>
+  <dimension ref="C3:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,29 +406,37 @@
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
@@ -440,8 +451,15 @@
       <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -454,14 +472,19 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
-        <v>57.461526819445062</v>
-      </c>
-      <c r="I6" s="3">
-        <v>106.9587517929526</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>81.18877562294368</v>
+      </c>
+      <c r="M6" s="3">
+        <v>151.31902387793241</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -476,14 +499,20 @@
         <f>G6+1</f>
         <v>2</v>
       </c>
-      <c r="H7" s="3">
-        <v>58.232697602704199</v>
-      </c>
-      <c r="I7" s="3">
-        <v>107.07824177752811</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="2">
+        <f>K6+1</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>81.513388195212272</v>
+      </c>
+      <c r="M7" s="3">
+        <v>148.17069301961479</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C25" si="0">C7+1</f>
         <v>3</v>
@@ -498,14 +527,20 @@
         <f t="shared" ref="G8:G25" si="1">G7+1</f>
         <v>3</v>
       </c>
-      <c r="H8" s="3">
-        <v>57.844720646603278</v>
-      </c>
-      <c r="I8" s="3">
-        <v>106.070986471815</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="2">
+        <f t="shared" ref="K8:K25" si="2">K7+1</f>
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>75.50773972924523</v>
+      </c>
+      <c r="M8" s="3">
+        <v>154.0277604984268</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -520,14 +555,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>59.916598138463847</v>
-      </c>
-      <c r="I9" s="3">
-        <v>110.22231571689559</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>78.882695813599852</v>
+      </c>
+      <c r="M9" s="3">
+        <v>147.27133212760489</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -542,14 +583,20 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H10" s="3">
-        <v>58.448671371413333</v>
-      </c>
-      <c r="I10" s="3">
-        <v>106.52727723041581</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>81.043108371373691</v>
+      </c>
+      <c r="M10" s="3">
+        <v>155.44830842621181</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -564,14 +611,20 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H11" s="3">
-        <v>59.78601188588258</v>
-      </c>
-      <c r="I11" s="3">
-        <v>106.3387576110656</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>76.447007746641887</v>
+      </c>
+      <c r="M11" s="3">
+        <v>152.29045865747909</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -586,14 +639,20 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H12" s="3">
-        <v>59.866155317405337</v>
-      </c>
-      <c r="I12" s="3">
-        <v>107.965185031465</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="K12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L12" s="3">
+        <v>77.762817942964716</v>
+      </c>
+      <c r="M12" s="3">
+        <v>149.8771549352391</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -608,14 +667,20 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H13" s="3">
-        <v>63.15041578899821</v>
-      </c>
-      <c r="I13" s="3">
-        <v>104.98115115463629</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L13" s="3">
+        <v>73.608659363958608</v>
+      </c>
+      <c r="M13" s="3">
+        <v>151.81499694611631</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -630,14 +695,20 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H14" s="3">
-        <v>57.632903866461731</v>
-      </c>
-      <c r="I14" s="3">
-        <v>103.9080806093539</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L14" s="3">
+        <v>72.835451223587114</v>
+      </c>
+      <c r="M14" s="3">
+        <v>150.46614436248129</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -652,14 +723,20 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H15" s="3">
-        <v>63.931975848326061</v>
-      </c>
-      <c r="I15" s="3">
-        <v>108.4651107547556</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
+        <v>74.612369917902839</v>
+      </c>
+      <c r="M15" s="3">
+        <v>152.09672999902901</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -674,14 +751,20 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H16" s="3">
-        <v>59.090751427419043</v>
-      </c>
-      <c r="I16" s="3">
-        <v>110.8490813621504</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="L16" s="3">
+        <v>77.437945642098072</v>
+      </c>
+      <c r="M16" s="3">
+        <v>152.34640807693049</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -696,14 +779,20 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H17" s="3">
-        <v>59.156390977042683</v>
-      </c>
-      <c r="I17" s="3">
-        <v>112.717120318444</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L17" s="3">
+        <v>71.142573141652349</v>
+      </c>
+      <c r="M17" s="3">
+        <v>146.5396524677567</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -718,14 +807,20 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H18" s="3">
-        <v>58.421401109694031</v>
-      </c>
-      <c r="I18" s="3">
-        <v>110.2911618728518</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="L18" s="3">
+        <v>81.203277049803248</v>
+      </c>
+      <c r="M18" s="3">
+        <v>161.86838173518521</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -740,14 +835,20 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="H19" s="3">
-        <v>58.621729282297622</v>
-      </c>
-      <c r="I19" s="3">
-        <v>112.50919971182751</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L19" s="3">
+        <v>75.249093724742437</v>
+      </c>
+      <c r="M19" s="3">
+        <v>145.55660536051201</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -762,14 +863,20 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H20" s="3">
-        <v>58.251605753850043</v>
-      </c>
-      <c r="I20" s="3">
-        <v>112.30422152329641</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L20" s="3">
+        <v>76.128925429115327</v>
+      </c>
+      <c r="M20" s="3">
+        <v>141.76430194063749</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -784,14 +891,20 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H21" s="3">
-        <v>61.461080205205853</v>
-      </c>
-      <c r="I21" s="3">
-        <v>103.4010035773705</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
+        <v>78.264570371061737</v>
+      </c>
+      <c r="M21" s="3">
+        <v>150.26443618231781</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -806,14 +919,20 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H22" s="3">
-        <v>63.613938503534648</v>
-      </c>
-      <c r="I22" s="3">
-        <v>107.4038191098617</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="L22" s="3">
+        <v>81.298363091579859</v>
+      </c>
+      <c r="M22" s="3">
+        <v>151.92138054682209</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -828,14 +947,20 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H23" s="3">
-        <v>58.779444638439543</v>
-      </c>
-      <c r="I23" s="3">
-        <v>105.0228761558148</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="K23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L23" s="3">
+        <v>75.561656492766048</v>
+      </c>
+      <c r="M23" s="3">
+        <v>149.3739805158109</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -850,14 +975,20 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H24" s="3">
-        <v>60.224903085819143</v>
-      </c>
-      <c r="I24" s="3">
-        <v>106.8144036642644</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="K24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="L24" s="3">
+        <v>76.839583259867382</v>
+      </c>
+      <c r="M24" s="3">
+        <v>152.49179277934061</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -872,14 +1003,20 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H25" s="3">
-        <v>62.064132960206763</v>
-      </c>
-      <c r="I25" s="3">
-        <v>106.4873162201381</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="K25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L25" s="3">
+        <v>80.094531408371438</v>
+      </c>
+      <c r="M25" s="3">
+        <v>145.61222186870529</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
@@ -894,16 +1031,27 @@
       <c r="G28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="3" t="e">
         <f>AVERAGE(H6:H25)</f>
-        <v>59.797852761460639</v>
-      </c>
-      <c r="I28" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="3" t="e">
         <f>AVERAGE(I6:I25)</f>
-        <v>107.81580308334514</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="3">
+        <f>AVERAGE(L6:L25)</f>
+        <v>77.331126676924399</v>
+      </c>
+      <c r="M28" s="3">
+        <f>AVERAGE(M6:M25)</f>
+        <v>150.52608821620768</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
@@ -918,26 +1066,37 @@
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="e">
         <f>_xlfn.STDEV.S(H6:H25)</f>
-        <v>2.0110788816586171</v>
-      </c>
-      <c r="I29" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="3" t="e">
         <f>_xlfn.STDEV.S(I6:I25)</f>
-        <v>2.8046850944504769</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <f>_xlfn.STDEV.S(L6:L25)</f>
+        <v>3.0865909849342454</v>
+      </c>
+      <c r="M29" s="3">
+        <f>_xlfn.STDEV.S(M6:M25)</f>
+        <v>4.2401352391518765</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1077,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1131,7 +1290,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
-        <f t="shared" ref="C9:C26" si="0">C8+1</f>
+        <f t="shared" ref="C9:C16" si="0">C8+1</f>
         <v>3</v>
       </c>
       <c r="D9" s="3">

--- a/migforecasting/underground/tests on superdataset/test-19.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-19.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="C3:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,8 +472,12 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3">
+        <v>45.015623278463408</v>
+      </c>
+      <c r="I6" s="3">
+        <v>122.9670147333901</v>
+      </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
@@ -499,8 +503,12 @@
         <f>G6+1</f>
         <v>2</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3">
+        <v>52.221549607921418</v>
+      </c>
+      <c r="I7" s="3">
+        <v>135.67391412683239</v>
+      </c>
       <c r="K7" s="2">
         <f>K6+1</f>
         <v>2</v>
@@ -527,8 +535,12 @@
         <f t="shared" ref="G8:G25" si="1">G7+1</f>
         <v>3</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3">
+        <v>51.434150644041367</v>
+      </c>
+      <c r="I8" s="3">
+        <v>133.00910928050681</v>
+      </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:K25" si="2">K7+1</f>
         <v>3</v>
@@ -555,8 +567,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3">
+        <v>47.874693486311891</v>
+      </c>
+      <c r="I9" s="3">
+        <v>122.75210816629171</v>
+      </c>
       <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -583,8 +599,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3">
+        <v>45.518078037551717</v>
+      </c>
+      <c r="I10" s="3">
+        <v>117.31211985586459</v>
+      </c>
       <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -611,8 +631,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3">
+        <v>48.155379959800968</v>
+      </c>
+      <c r="I11" s="3">
+        <v>135.0153957491697</v>
+      </c>
       <c r="K11" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -639,8 +663,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3">
+        <v>45.938757404709598</v>
+      </c>
+      <c r="I12" s="3">
+        <v>120.5621259045693</v>
+      </c>
       <c r="K12" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -667,8 +695,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3">
+        <v>56.439905283185503</v>
+      </c>
+      <c r="I13" s="3">
+        <v>129.36797805504739</v>
+      </c>
       <c r="K13" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -695,8 +727,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3">
+        <v>46.712859194649127</v>
+      </c>
+      <c r="I14" s="3">
+        <v>126.7786450842728</v>
+      </c>
       <c r="K14" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -723,8 +759,12 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3">
+        <v>51.674515248009953</v>
+      </c>
+      <c r="I15" s="3">
+        <v>130.3799269565778</v>
+      </c>
       <c r="K15" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -751,8 +791,12 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3">
+        <v>47.001300158214043</v>
+      </c>
+      <c r="I16" s="3">
+        <v>130.91312623047091</v>
+      </c>
       <c r="K16" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -779,8 +823,12 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3">
+        <v>47.995693850896593</v>
+      </c>
+      <c r="I17" s="3">
+        <v>135.11705565938891</v>
+      </c>
       <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -807,8 +855,12 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3">
+        <v>51.096040854073678</v>
+      </c>
+      <c r="I18" s="3">
+        <v>124.7569800308971</v>
+      </c>
       <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -835,8 +887,12 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3">
+        <v>45.207048141637138</v>
+      </c>
+      <c r="I19" s="3">
+        <v>121.2666367895843</v>
+      </c>
       <c r="K19" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -863,8 +919,12 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="3">
+        <v>46.888204845620429</v>
+      </c>
+      <c r="I20" s="3">
+        <v>134.08403443949399</v>
+      </c>
       <c r="K20" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -891,8 +951,12 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3">
+        <v>47.752615398781202</v>
+      </c>
+      <c r="I21" s="3">
+        <v>143.1950586611795</v>
+      </c>
       <c r="K21" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -919,8 +983,12 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="H22" s="3">
+        <v>50.115232123744427</v>
+      </c>
+      <c r="I22" s="3">
+        <v>135.88487259523811</v>
+      </c>
       <c r="K22" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -947,8 +1015,12 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="H23" s="3">
+        <v>45.190286069773023</v>
+      </c>
+      <c r="I23" s="3">
+        <v>121.941389650684</v>
+      </c>
       <c r="K23" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -975,8 +1047,12 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="H24" s="3">
+        <v>46.951320295682883</v>
+      </c>
+      <c r="I24" s="3">
+        <v>126.0483543602533</v>
+      </c>
       <c r="K24" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1003,8 +1079,12 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="H25" s="3">
+        <v>50.971494236587318</v>
+      </c>
+      <c r="I25" s="3">
+        <v>130.8761912692425</v>
+      </c>
       <c r="K25" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1031,13 +1111,13 @@
       <c r="G28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="3" t="e">
+      <c r="H28" s="3">
         <f>AVERAGE(H6:H25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="3" t="e">
+        <v>48.507737405982787</v>
+      </c>
+      <c r="I28" s="3">
         <f>AVERAGE(I6:I25)</f>
-        <v>#DIV/0!</v>
+        <v>128.89510187994773</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>2</v>
@@ -1066,13 +1146,13 @@
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3" t="e">
+      <c r="H29" s="3">
         <f>_xlfn.STDEV.S(H6:H25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="3" t="e">
+        <v>3.0103653472765184</v>
+      </c>
+      <c r="I29" s="3">
         <f>_xlfn.STDEV.S(I6:I25)</f>
-        <v>#DIV/0!</v>
+        <v>6.6589146800033081</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>3</v>
